--- a/pij_calc.xlsx
+++ b/pij_calc.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadjadbazarnovi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadjadbazarnovi/Dropbox/thesis/MSc_Codes/MSc-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17767689-890E-FE49-8CCE-9D48E1E158F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1FF56-3BCF-0742-AB23-7C2DFA44482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{771B803C-8251-064C-97F8-B7E0BE987F16}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{771B803C-8251-064C-97F8-B7E0BE987F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,30 +26,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>الف</t>
+    <t>tau</t>
   </si>
   <si>
-    <t>ب</t>
+    <t>L</t>
   </si>
   <si>
-    <t>پ</t>
+    <t>visibility</t>
   </si>
   <si>
-    <t>ت</t>
+    <t>utility</t>
   </si>
   <si>
-    <t>۱،۲</t>
+    <t>1, 2, 3</t>
   </si>
   <si>
-    <t>۱،۳</t>
+    <t>2, 3</t>
   </si>
   <si>
-    <t>۲،۱</t>
+    <t>p</t>
   </si>
   <si>
-    <t>۲،۳</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>l\m</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>remanied t</t>
   </si>
 </sst>
 </file>
@@ -58,7 +73,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,7 +119,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0453B4-D7E6-BB4E-B741-2DE07A3CD177}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:CD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -432,504 +456,2729 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1">
         <v>7</v>
       </c>
       <c r="K1" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>64</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>65</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>66</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>67</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>68</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>69</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>70</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>71</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>72</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>73</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>75</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>76</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1">
-        <f>11.67*(0.8-((K1+4)/900))</f>
-        <v>9.2841333333333331</v>
-      </c>
-      <c r="M1" s="1">
-        <f>131.25*(0.8-((K1+8)/900))</f>
-        <v>103.83333333333334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="B2" s="1">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.27291954022988402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>14</v>
+      </c>
+      <c r="R11" s="1">
+        <v>15</v>
+      </c>
+      <c r="S11" s="1">
+        <v>16</v>
+      </c>
+      <c r="T11" s="1">
+        <v>17</v>
+      </c>
+      <c r="U11" s="1">
+        <v>18</v>
+      </c>
+      <c r="V11" s="1">
+        <v>19</v>
+      </c>
+      <c r="W11" s="1">
+        <v>20</v>
+      </c>
+      <c r="X11" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF11" s="1">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="AG11" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>51</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>52</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>53</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>54</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>55</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>56</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>57</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>58</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>59</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>60</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>61</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>62</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>63</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>64</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>65</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>66</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>67</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>68</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>69</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>70</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>71</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>72</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>73</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>74</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>75</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>76</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>77</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>78</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C2 + 0.5*$C7</f>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:BO13" si="0">D2 + 0.5*$C7</f>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AB12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AC12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AN12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AQ12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AR12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AT12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AU12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AV12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AW12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AX12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AY12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="AZ12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BA12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BB12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BC12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BD12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BE12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BF12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BG12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BH12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BI12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BJ12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BK12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BL12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BM12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BN12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BO12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BP12" s="3">
+        <f t="shared" ref="BP12:CD14" si="1">BP2 + 0.5*$C7</f>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BQ12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BR12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BS12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BT12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BU12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BV12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BW12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BX12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BY12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="BZ12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="CA12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="CB12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="CC12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+      <c r="CD12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1364597701149419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:R14" si="2">C3 + 0.5*$C8</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AR13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AT13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AV13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AX13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AY13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BA13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BB13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BC13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BD13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BE13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BF13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BG13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BH13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BI13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BK13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BL13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BM13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BN13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BO13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BP13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BR13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BS13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BT13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BU13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BV13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BW13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BX13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BY13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BZ13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CA13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CB13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CC13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="CD13" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:BO14" si="3">D4 + 0.5*$C9</f>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AN14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AQ14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AR14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AS14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AV14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AW14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AX14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AY14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="AZ14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BA14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BB14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BC14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BD14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BE14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BF14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BG14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BH14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BI14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BJ14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BK14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BL14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BM14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BN14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BO14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="BP14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BQ14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BR14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BS14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BT14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BU14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BV14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BW14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BX14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BY14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="BZ14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="CA14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="CB14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="CC14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="CD14" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <f>EXP(C12)/(EXP(C12)+EXP(C13)+EXP(C14))</f>
+        <v>0.30203686345154906</v>
+      </c>
+      <c r="D22" s="3">
+        <f>EXP(C12)/(EXP(C12)+EXP(C13))</f>
+        <v>0.53406210229536022</v>
+      </c>
+      <c r="E22" s="3">
+        <f>EXP(C12)/(EXP(C12)+EXP(C13))</f>
+        <v>0.53406210229536022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3">
+        <f>EXP(C13)/(EXP(C12)+EXP(C13)+EXP(C14))+C22</f>
+        <v>0.5655463328205026</v>
+      </c>
+      <c r="D23" s="3">
+        <f>EXP(C13)/(EXP(C12)+EXP(C13))+D22</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <f>EXP(C13)/(EXP(C12)+EXP(C13))+E22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <f>EXP(C14)/(EXP(C12)+EXP(C13)+EXP(C14))+C23</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1">
+        <v>52</v>
+      </c>
+      <c r="H33" s="1">
+        <v>50</v>
+      </c>
+      <c r="I33" s="1">
+        <v>48</v>
+      </c>
+      <c r="J33" s="1">
+        <v>46</v>
+      </c>
+      <c r="K33" s="1">
+        <v>44</v>
+      </c>
+      <c r="L33" s="1">
+        <v>42</v>
+      </c>
+      <c r="M33" s="1">
+        <v>40</v>
+      </c>
+      <c r="N33" s="1">
+        <v>38</v>
+      </c>
+      <c r="O33" s="1">
+        <v>36</v>
+      </c>
+      <c r="P33" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>32</v>
+      </c>
+      <c r="R33" s="1">
+        <v>30</v>
+      </c>
+      <c r="S33" s="1">
+        <v>28</v>
+      </c>
+      <c r="T33" s="1">
+        <v>26</v>
+      </c>
+      <c r="U33" s="1">
+        <v>24</v>
+      </c>
+      <c r="V33" s="1">
+        <v>22</v>
+      </c>
+      <c r="W33" s="1">
+        <v>20</v>
+      </c>
+      <c r="X33" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>14</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="1">
         <v>8</v>
       </c>
-      <c r="H2" s="1">
-        <f>SUMPRODUCT(11.67*(0.8-(((ROW(A2:INDEX(A:A,B2-A2+1))-(1-A2))+D2)/900))+131.25*(0.8-(((ROW(A2:INDEX(A:A,B2-A2+1))-(1-A2))+E2)/900)))</f>
-        <v>3211.3285333333333</v>
-      </c>
-      <c r="I2" s="1">
-        <f>SUMPRODUCT((ROW(A2:INDEX(A:A,B2-A2+1))-(1-A2)))</f>
-        <v>435</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L30" si="0">11.67*(0.8-((K2+4)/900))</f>
-        <v>9.2711666666666677</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M30" si="1">131.25*(0.8-((K2+8)/900))</f>
-        <v>103.6875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="AD33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1">
+        <v>50</v>
+      </c>
+      <c r="J34" s="1">
+        <v>50</v>
+      </c>
+      <c r="K34" s="1">
+        <v>50</v>
+      </c>
+      <c r="L34" s="1">
+        <v>50</v>
+      </c>
+      <c r="M34" s="1">
+        <v>50</v>
+      </c>
+      <c r="N34" s="1">
+        <v>50</v>
+      </c>
+      <c r="O34" s="1">
+        <v>50</v>
+      </c>
+      <c r="P34" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>50</v>
+      </c>
+      <c r="R34" s="1">
+        <v>50</v>
+      </c>
+      <c r="S34" s="1">
+        <v>50</v>
+      </c>
+      <c r="T34" s="1">
+        <v>50</v>
+      </c>
+      <c r="U34" s="1">
+        <v>50</v>
+      </c>
+      <c r="V34" s="1">
+        <v>50</v>
+      </c>
+      <c r="W34" s="1">
+        <v>50</v>
+      </c>
+      <c r="X34" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="1">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="H35" s="1">
+        <v>29</v>
+      </c>
+      <c r="I35" s="1">
+        <v>28</v>
+      </c>
+      <c r="J35" s="1">
+        <v>27</v>
+      </c>
+      <c r="K35" s="1">
+        <v>26</v>
+      </c>
+      <c r="L35" s="1">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1">
+        <v>24</v>
+      </c>
+      <c r="N35" s="1">
+        <v>23</v>
+      </c>
+      <c r="O35" s="1">
+        <v>22</v>
+      </c>
+      <c r="P35" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>20</v>
+      </c>
+      <c r="R35" s="1">
+        <v>19</v>
+      </c>
+      <c r="S35" s="1">
+        <v>18</v>
+      </c>
+      <c r="T35" s="1">
+        <v>17</v>
+      </c>
+      <c r="U35" s="1">
+        <v>16</v>
+      </c>
+      <c r="V35" s="1">
+        <v>15</v>
+      </c>
+      <c r="W35" s="1">
+        <v>14</v>
+      </c>
+      <c r="X35" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="AH35" s="1">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
-        <f>SUMPRODUCT((ROW(A3:INDEX(A:A,B3-A3+1))-(1-A3))+1)</f>
-        <v>462</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="AI35" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2582000000000004</v>
-      </c>
-      <c r="M3" s="1">
-        <f t="shared" si="1"/>
-        <v>103.54166666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44</v>
-      </c>
-      <c r="B4" s="2">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <f>SUMPRODUCT((ROW(A4:INDEX(A:A,B4-A4+1))-(1-A4)))</f>
-        <v>245</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2452333333333332</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="1"/>
-        <v>103.39583333333334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <f>SUMPRODUCT((ROW(A5:INDEX(A:A,B5-A5+1))-(1-A5)))</f>
-        <v>1700</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2322666666666677</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>103.25000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>9.2193000000000005</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>103.10416666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>9.206333333333335</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>102.95833333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>9.193366666666666</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>102.8125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1804000000000006</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="1"/>
-        <v>102.66666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K10" s="1">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1674333333333333</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="1"/>
-        <v>102.52083333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1544666666666679</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>102.375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K12" s="1">
-        <v>11</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1415000000000006</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>102.22916666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K13" s="1">
-        <v>12</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1285333333333334</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>102.08333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K14" s="1">
-        <v>13</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1155666666666679</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="1"/>
-        <v>101.93750000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K15" s="1">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>9.1026000000000007</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
-        <v>101.79166666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0896333333333335</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="1"/>
-        <v>101.64583333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K17" s="1">
-        <v>16</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0766666666666662</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
-        <v>101.50000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K18" s="1">
-        <v>17</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0637000000000008</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="1"/>
-        <v>101.35416666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K19" s="1">
-        <v>18</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0507333333333335</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="1"/>
-        <v>101.20833333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K20" s="1">
-        <v>19</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0377666666666663</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="1"/>
-        <v>101.0625</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K21" s="1">
-        <v>20</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0248000000000008</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="1"/>
-        <v>100.91666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="1">
-        <v>21</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>9.0118333333333336</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="1"/>
-        <v>100.77083333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K23" s="1">
-        <v>22</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9988666666666681</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" si="1"/>
-        <v>100.625</v>
-      </c>
-    </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K24" s="1">
-        <v>23</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9859000000000009</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="1"/>
-        <v>100.47916666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K25" s="1">
-        <v>24</v>
-      </c>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9729333333333336</v>
-      </c>
-      <c r="M25" s="1">
-        <f t="shared" si="1"/>
-        <v>100.33333333333334</v>
-      </c>
-    </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K26" s="1">
-        <v>25</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9599666666666664</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="1"/>
-        <v>100.18750000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K27" s="1">
-        <v>26</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>8.947000000000001</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="1"/>
-        <v>100.04166666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K28" s="1">
-        <v>27</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9340333333333337</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="1"/>
-        <v>99.895833333333343</v>
-      </c>
-    </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K29" s="1">
-        <v>28</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9210666666666665</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="1"/>
-        <v>99.75</v>
-      </c>
-    </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K30" s="1">
-        <v>29</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>8.908100000000001</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="1"/>
-        <v>99.604166666666671</v>
+      <c r="AJ35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -938,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADC44A5-79E7-BA42-BA57-4C343B1550CC}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1019,7 +3268,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <f ca="1">RAND()</f>
-        <v>0.32215719193789571</v>
+        <v>0.93497002810870733</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1106,7 +3355,7 @@
         <v>2.4634</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:H12" si="0">D8+$B8</f>
+        <f t="shared" ref="D12:F12" si="0">D8+$B8</f>
         <v>1.5413999999999999</v>
       </c>
       <c r="E12" s="1">
